--- a/data/financial_statements/sofp/ROL.xlsx
+++ b/data/financial_statements/sofp/ROL.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,144 +604,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>132000000</v>
+        <v>121876000</v>
       </c>
       <c r="C2">
-        <v>232000000</v>
+        <v>220964000</v>
       </c>
       <c r="D2">
-        <v>271000000</v>
+        <v>258338000</v>
       </c>
       <c r="E2">
-        <v>118000000</v>
+        <v>105301000</v>
       </c>
       <c r="F2">
-        <v>128000000</v>
+        <v>117655000</v>
       </c>
       <c r="G2">
         <v>128528000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>203000000</v>
+        <v>202527000</v>
       </c>
       <c r="C3">
-        <v>193000000</v>
+        <v>192577000</v>
       </c>
       <c r="D3">
-        <v>164000000</v>
+        <v>164252000</v>
       </c>
       <c r="E3">
-        <v>166000000</v>
+        <v>165731000</v>
       </c>
       <c r="F3">
-        <v>180000000</v>
+        <v>180160000</v>
       </c>
       <c r="G3">
         <v>168299000</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>29000000</v>
+        <v>28572000</v>
       </c>
       <c r="C4">
-        <v>30000000</v>
+        <v>29515000</v>
       </c>
       <c r="D4">
-        <v>29000000</v>
+        <v>29062000</v>
       </c>
       <c r="E4">
-        <v>29000000</v>
+        <v>28926000</v>
       </c>
       <c r="F4">
-        <v>27000000</v>
+        <v>26976000</v>
       </c>
       <c r="G4">
         <v>29952000</v>
@@ -980,23 +1091,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>35000000</v>
+        <v>45981000</v>
       </c>
       <c r="C5">
-        <v>53000000</v>
+        <v>63942000</v>
       </c>
       <c r="D5">
-        <v>32000000</v>
+        <v>44860000</v>
       </c>
       <c r="E5">
-        <v>40000000</v>
+        <v>52422000</v>
       </c>
       <c r="F5">
-        <v>38000000</v>
+        <v>48663000</v>
       </c>
       <c r="G5">
         <v>49546000</v>
@@ -1102,23 +1213,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>399000000</v>
+        <v>398956000</v>
       </c>
       <c r="C6">
-        <v>507000000</v>
+        <v>506998000</v>
       </c>
       <c r="D6">
-        <v>497000000</v>
+        <v>496512000</v>
       </c>
       <c r="E6">
-        <v>352000000</v>
+        <v>352380000</v>
       </c>
       <c r="F6">
-        <v>373000000</v>
+        <v>373454000</v>
       </c>
       <c r="G6">
         <v>376325000</v>
@@ -1224,23 +1335,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>401000000</v>
+        <v>130362000</v>
       </c>
       <c r="C7">
-        <v>383000000</v>
+        <v>130424000</v>
       </c>
       <c r="D7">
-        <v>374000000</v>
+        <v>132680000</v>
       </c>
       <c r="E7">
-        <v>378000000</v>
+        <v>133257000</v>
       </c>
       <c r="F7">
-        <v>383000000</v>
+        <v>131549000</v>
       </c>
       <c r="G7">
         <v>134911000</v>
@@ -1346,8 +1457,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>58634000</v>
@@ -1468,23 +1579,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>1216000000</v>
+        <v>1215530000</v>
       </c>
       <c r="C9">
-        <v>1181000000</v>
+        <v>1181078000</v>
       </c>
       <c r="D9">
-        <v>1169000000</v>
+        <v>1168555000</v>
       </c>
       <c r="E9">
-        <v>1168000000</v>
+        <v>1168403000</v>
       </c>
       <c r="F9">
-        <v>1068000000</v>
+        <v>1068183000</v>
       </c>
       <c r="G9">
         <v>1074769000</v>
@@ -1590,8 +1701,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F10">
         <v>2568000</v>
@@ -1691,23 +1802,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>36000000</v>
+        <v>38636000</v>
       </c>
       <c r="C11">
-        <v>38000000</v>
+        <v>43666000</v>
       </c>
       <c r="D11">
-        <v>43000000</v>
+        <v>46161000</v>
       </c>
       <c r="E11">
-        <v>32000000</v>
+        <v>34949000</v>
       </c>
       <c r="F11">
-        <v>32000000</v>
+        <v>31157000</v>
       </c>
       <c r="G11">
         <v>30007000</v>
@@ -1813,8 +1924,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1713527000</v>
@@ -1935,23 +2046,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>2112000000</v>
+        <v>2112483000</v>
       </c>
       <c r="C13">
-        <v>2167000000</v>
+        <v>2167482000</v>
       </c>
       <c r="D13">
-        <v>2131000000</v>
+        <v>2131143000</v>
       </c>
       <c r="E13">
-        <v>1981000000</v>
+        <v>1980870000</v>
       </c>
       <c r="F13">
-        <v>1905000000</v>
+        <v>1904813000</v>
       </c>
       <c r="G13">
         <v>1921693000</v>
@@ -2057,23 +2168,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>43000000</v>
+        <v>42874000</v>
       </c>
       <c r="C14">
-        <v>51000000</v>
+        <v>50702000</v>
       </c>
       <c r="D14">
-        <v>39000000</v>
+        <v>38586000</v>
       </c>
       <c r="E14">
-        <v>45000000</v>
+        <v>44568000</v>
       </c>
       <c r="F14">
-        <v>39000000</v>
+        <v>38509000</v>
       </c>
       <c r="G14">
         <v>74815000</v>
@@ -2179,8 +2290,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>136118000</v>
@@ -2301,23 +2412,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>98000000</v>
+        <v>15000000</v>
       </c>
       <c r="C16">
-        <v>93000000</v>
+        <v>15000000</v>
       </c>
       <c r="D16">
-        <v>89000000</v>
+        <v>15000000</v>
       </c>
       <c r="E16">
-        <v>94000000</v>
+        <v>18750000</v>
       </c>
       <c r="F16">
-        <v>95000000</v>
+        <v>18750000</v>
       </c>
       <c r="G16">
         <v>18750000</v>
@@ -2348,8 +2459,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>166866000</v>
@@ -2470,23 +2581,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>369000000</v>
+        <v>66300000</v>
       </c>
       <c r="C18">
-        <v>374000000</v>
+        <v>75283000</v>
       </c>
       <c r="D18">
-        <v>353000000</v>
+        <v>82317000</v>
       </c>
       <c r="E18">
-        <v>353000000</v>
+        <v>73206000</v>
       </c>
       <c r="F18">
-        <v>344000000</v>
+        <v>60833000</v>
       </c>
       <c r="G18">
         <v>73269000</v>
@@ -2592,23 +2703,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>510000000</v>
+        <v>509769000</v>
       </c>
       <c r="C19">
-        <v>518000000</v>
+        <v>517744000</v>
       </c>
       <c r="D19">
-        <v>481000000</v>
+        <v>480897000</v>
       </c>
       <c r="E19">
-        <v>491000000</v>
+        <v>491162000</v>
       </c>
       <c r="F19">
-        <v>477000000</v>
+        <v>477496000</v>
       </c>
       <c r="G19">
         <v>518744000</v>
@@ -2714,23 +2825,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>301000000</v>
+        <v>109878000</v>
       </c>
       <c r="C20">
-        <v>398000000</v>
+        <v>219858000</v>
       </c>
       <c r="D20">
-        <v>451000000</v>
+        <v>280783000</v>
       </c>
       <c r="E20">
-        <v>309000000</v>
+        <v>136250000</v>
       </c>
       <c r="F20">
-        <v>227000000</v>
+        <v>49250000</v>
       </c>
       <c r="G20">
         <v>69250000</v>
@@ -2761,8 +2872,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="R21">
         <v>58000</v>
@@ -2829,8 +2940,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>13000000</v>
@@ -2845,7 +2956,7 @@
         <v>10000000</v>
       </c>
       <c r="F22">
-        <v>11000000</v>
+        <v>13288000</v>
       </c>
       <c r="G22">
         <v>9330000</v>
@@ -2876,23 +2987,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>90000000</v>
+        <v>104720000</v>
       </c>
       <c r="C23">
-        <v>88000000</v>
+        <v>106292000</v>
       </c>
       <c r="D23">
-        <v>79000000</v>
+        <v>92095000</v>
       </c>
       <c r="E23">
-        <v>86000000</v>
+        <v>98890000</v>
       </c>
       <c r="F23">
-        <v>86000000</v>
+        <v>85769000</v>
       </c>
       <c r="G23">
         <v>90881000</v>
@@ -2998,8 +3109,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>406163000</v>
@@ -3120,23 +3231,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>916000000</v>
+        <v>915932000</v>
       </c>
       <c r="C25">
-        <v>1022000000</v>
+        <v>1021915000</v>
       </c>
       <c r="D25">
-        <v>1024000000</v>
+        <v>1023614000</v>
       </c>
       <c r="E25">
-        <v>899000000</v>
+        <v>898822000</v>
       </c>
       <c r="F25">
-        <v>803000000</v>
+        <v>803184000</v>
       </c>
       <c r="G25">
         <v>871009000</v>
@@ -3242,8 +3353,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>113995000</v>
@@ -3364,23 +3475,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>492000000</v>
+        <v>492472000</v>
       </c>
       <c r="C27">
-        <v>492000000</v>
+        <v>492417000</v>
       </c>
       <c r="D27">
-        <v>492000000</v>
+        <v>492461000</v>
       </c>
       <c r="E27">
-        <v>492000000</v>
+        <v>491911000</v>
       </c>
       <c r="F27">
-        <v>492000000</v>
+        <v>492049000</v>
       </c>
       <c r="G27">
         <v>492079000</v>
@@ -3486,23 +3597,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>634000000</v>
+        <v>633650000</v>
       </c>
       <c r="C28">
-        <v>575000000</v>
+        <v>575229000</v>
       </c>
       <c r="D28">
-        <v>524000000</v>
+        <v>524159000</v>
       </c>
       <c r="E28">
-        <v>501000000</v>
+        <v>500919000</v>
       </c>
       <c r="F28">
-        <v>525000000</v>
+        <v>524561000</v>
       </c>
       <c r="G28">
         <v>470653000</v>
@@ -3608,8 +3719,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AC29">
         <v>200000</v>
@@ -3634,23 +3745,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>1197000000</v>
+        <v>1196551000</v>
       </c>
       <c r="C30">
-        <v>1146000000</v>
+        <v>1145567000</v>
       </c>
       <c r="D30">
-        <v>1108000000</v>
+        <v>1107529000</v>
       </c>
       <c r="E30">
-        <v>1082000000</v>
+        <v>1082048000</v>
       </c>
       <c r="F30">
-        <v>1102000000</v>
+        <v>1101629000</v>
       </c>
       <c r="G30">
         <v>1050684000</v>
@@ -3756,23 +3867,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>1197000000</v>
+        <v>1196551000</v>
       </c>
       <c r="C31">
-        <v>1146000000</v>
+        <v>1145567000</v>
       </c>
       <c r="D31">
-        <v>1108000000</v>
+        <v>1107529000</v>
       </c>
       <c r="E31">
-        <v>1082000000</v>
+        <v>1082048000</v>
       </c>
       <c r="F31">
-        <v>1102000000</v>
+        <v>1101629000</v>
       </c>
       <c r="G31">
         <v>1050684000</v>
@@ -3878,8 +3989,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2112483000</v>
@@ -4000,8 +4111,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>492472000</v>
@@ -4122,8 +4233,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-18979100</v>
@@ -4244,23 +4355,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>267000000</v>
+        <v>3002000</v>
       </c>
       <c r="C35">
-        <v>259000000</v>
+        <v>13894000</v>
       </c>
       <c r="D35">
-        <v>269000000</v>
+        <v>37445000</v>
       </c>
       <c r="E35">
-        <v>285000000</v>
+        <v>49699000</v>
       </c>
       <c r="F35">
-        <v>194000000</v>
+        <v>-49655000</v>
       </c>
       <c r="G35">
         <v>-40528000</v>
@@ -4366,23 +4477,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>399000000</v>
+        <v>124878000</v>
       </c>
       <c r="C36">
-        <v>491000000</v>
+        <v>234858000</v>
       </c>
       <c r="D36">
-        <v>540000000</v>
+        <v>295783000</v>
       </c>
       <c r="E36">
-        <v>403000000</v>
+        <v>155000000</v>
       </c>
       <c r="F36">
-        <v>322000000</v>
+        <v>68000000</v>
       </c>
       <c r="G36">
         <v>88000000</v>
